--- a/Instruction Set Encoding.xlsx
+++ b/Instruction Set Encoding.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Udemy\FPGA course\Microprocessor Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Udemy\FPGA course\Microprocessor Design\Simple-Microprocessor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A96A41-2547-46B2-A849-CD38B419D911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EF1C98-03DD-4E57-B48C-28E30ABDF6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,15 +357,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -377,73 +377,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -729,7 +708,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,64 +803,64 @@
       <c r="H2" s="6">
         <v>0</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="12" t="s">
+      <c r="I2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="23" t="s">
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -908,64 +887,64 @@
       <c r="H4" s="6">
         <v>0</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="12" t="s">
+      <c r="I4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23" t="s">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="14"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -992,106 +971,106 @@
       <c r="H6" s="6">
         <v>0</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12" t="s">
+      <c r="I6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="19"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="14"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="23" t="s">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="19"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="14"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="23" t="s">
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="19"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="14"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -1100,8 +1079,8 @@
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="6">
         <v>0</v>
       </c>
@@ -1114,20 +1093,20 @@
       <c r="H9" s="6">
         <v>1</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="22"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -1160,112 +1139,112 @@
       <c r="J10" s="6">
         <v>0</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="12" t="s">
+      <c r="K10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="13"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23" t="s">
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="24"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="23" t="s">
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="24"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="8"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -1298,62 +1277,62 @@
       <c r="J13" s="6">
         <v>1</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="12" t="s">
+      <c r="K13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="13"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="8"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="16"/>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="11"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -1365,7 +1344,7 @@
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="6">
         <v>1</v>
       </c>
@@ -1384,18 +1363,18 @@
       <c r="J15" s="6">
         <v>1</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="19"/>
+      <c r="K15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="14"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -1407,7 +1386,7 @@
       <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="6">
         <v>1</v>
       </c>
@@ -1426,18 +1405,18 @@
       <c r="J16" s="6">
         <v>0</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="19"/>
+      <c r="K16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="14"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -1449,7 +1428,7 @@
       <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="6">
         <v>1</v>
       </c>
@@ -1468,102 +1447,102 @@
       <c r="J17" s="6">
         <v>1</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="19"/>
+      <c r="K17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="14"/>
     </row>
     <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="19"/>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>1</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="22"/>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1575,7 +1554,7 @@
       <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="6">
         <v>1</v>
       </c>
@@ -1594,64 +1573,64 @@
       <c r="J20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="12" t="s">
+      <c r="L20" s="8"/>
+      <c r="M20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="13"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="8"/>
     </row>
     <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>1</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>1</v>
-      </c>
-      <c r="J21" s="9">
-        <v>1</v>
-      </c>
-      <c r="K21" s="23" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="23" t="s">
+      <c r="L21" s="8"/>
+      <c r="M21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="24"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="8"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -1663,7 +1642,7 @@
       <c r="C22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="6">
         <v>1</v>
       </c>
@@ -1682,20 +1661,20 @@
       <c r="J22" s="6">
         <v>0</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="12" t="s">
+      <c r="L22" s="8"/>
+      <c r="M22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="13"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="8"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -1707,7 +1686,7 @@
       <c r="C23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="6">
         <v>1</v>
       </c>
@@ -1726,139 +1705,107 @@
       <c r="J23" s="6">
         <v>1</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="12" t="s">
+      <c r="L23" s="8"/>
+      <c r="M23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="13"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="8"/>
     </row>
     <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="9">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9">
-        <v>1</v>
-      </c>
-      <c r="I24" s="9">
-        <v>1</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="23" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="23" t="s">
+      <c r="L24" s="8"/>
+      <c r="M24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="24"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="8"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>1</v>
-      </c>
-      <c r="H25" s="9">
-        <v>1</v>
-      </c>
-      <c r="I25" s="9">
-        <v>1</v>
-      </c>
-      <c r="J25" s="9">
-        <v>1</v>
-      </c>
-      <c r="K25" s="23" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="24"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="29"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:T23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:T24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:T25"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:T21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:T22"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:T19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
@@ -1870,6 +1817,38 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:T19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:T20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:T21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:T22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:T23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:T24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:T25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
